--- a/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_I2_LongResults.xlsx
+++ b/VRPTW-New/Zeus OS VRPTW Workspace 2018 2.4/Zeus/data/VRPTW/Results/rc106_I2_LongResults.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2480" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3952" uniqueCount="25">
   <si>
     <t/>
   </si>
@@ -94,13 +94,23 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -133,10 +143,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -159,26 +171,26 @@
     <col min="8" max="8" bestFit="true" customWidth="true" width="14.71875" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true">
-      <c r="A1" t="s" s="2">
+    <row r="1" s="4" customFormat="true">
+      <c r="A1" t="s" s="4">
         <v>1</v>
       </c>
-      <c r="B1" t="s" s="2">
+      <c r="B1" t="s" s="4">
         <v>2</v>
       </c>
-      <c r="C1" t="s" s="2">
+      <c r="C1" t="s" s="4">
         <v>3</v>
       </c>
-      <c r="D1" t="s" s="2">
+      <c r="D1" t="s" s="4">
         <v>4</v>
       </c>
-      <c r="E1" t="s" s="2">
+      <c r="E1" t="s" s="4">
         <v>5</v>
       </c>
-      <c r="F1" t="s" s="2">
+      <c r="F1" t="s" s="4">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="2">
+      <c r="G1" t="s" s="4">
         <v>7</v>
       </c>
     </row>
@@ -206,28 +218,28 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="2">
+      <c r="A3" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B3" t="s" s="2">
+      <c r="B3" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C3" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D3" t="s" s="2">
+      <c r="C3" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E3" t="s" s="2">
+      <c r="E3" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F3" t="s" s="2">
+      <c r="F3" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G3" t="s" s="2">
+      <c r="G3" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H3" t="s" s="2">
+      <c r="H3" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -252,28 +264,28 @@
       </c>
     </row>
     <row r="5">
-      <c r="B5" t="s" s="2">
+      <c r="B5" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C5" t="s" s="2">
+      <c r="C5" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D5" t="s" s="2">
+      <c r="D5" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E5" t="s" s="2">
+      <c r="E5" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F5" t="s" s="2">
+      <c r="F5" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G5" t="s" s="2">
+      <c r="G5" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H5" t="s" s="2">
+      <c r="H5" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I5" t="s" s="2">
+      <c r="I5" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -332,10 +344,10 @@
       <c r="I7">
         <f>((C7-C6)^2+(D7- D6)^2)^.5</f>
       </c>
-      <c r="J7" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K7" s="2" t="s">
+      <c r="J7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K7" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L7" t="n">
@@ -379,28 +391,28 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="2">
+      <c r="A9" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B9" t="s" s="2">
+      <c r="B9" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C9" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D9" t="s" s="2">
+      <c r="C9" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D9" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E9" t="s" s="2">
+      <c r="E9" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F9" t="s" s="2">
+      <c r="F9" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G9" t="s" s="2">
+      <c r="G9" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H9" t="s" s="2">
+      <c r="H9" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -425,28 +437,28 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="2">
+      <c r="B11" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C11" t="s" s="2">
+      <c r="C11" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D11" t="s" s="2">
+      <c r="D11" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E11" t="s" s="2">
+      <c r="E11" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F11" t="s" s="2">
+      <c r="F11" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G11" t="s" s="2">
+      <c r="G11" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H11" t="s" s="2">
+      <c r="H11" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I11" t="s" s="2">
+      <c r="I11" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -534,10 +546,10 @@
       <c r="I14">
         <f>((C14-C13)^2+(D14- D13)^2)^.5</f>
       </c>
-      <c r="J14" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K14" s="2" t="s">
+      <c r="J14" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K14" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L14" t="n">
@@ -581,28 +593,28 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="s" s="2">
+      <c r="A16" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B16" t="s" s="2">
+      <c r="B16" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C16" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D16" t="s" s="2">
+      <c r="C16" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D16" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E16" t="s" s="2">
+      <c r="E16" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F16" t="s" s="2">
+      <c r="F16" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G16" t="s" s="2">
+      <c r="G16" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H16" t="s" s="2">
+      <c r="H16" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -627,28 +639,28 @@
       </c>
     </row>
     <row r="18">
-      <c r="B18" t="s" s="2">
+      <c r="B18" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C18" t="s" s="2">
+      <c r="C18" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D18" t="s" s="2">
+      <c r="D18" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E18" t="s" s="2">
+      <c r="E18" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F18" t="s" s="2">
+      <c r="F18" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G18" t="s" s="2">
+      <c r="G18" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H18" t="s" s="2">
+      <c r="H18" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I18" t="s" s="2">
+      <c r="I18" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -736,10 +748,10 @@
       <c r="I21">
         <f>((C21-C20)^2+(D21- D20)^2)^.5</f>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K21" s="2" t="s">
+      <c r="J21" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K21" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L21" t="n">
@@ -783,28 +795,28 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="s" s="2">
+      <c r="A23" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B23" t="s" s="2">
+      <c r="B23" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C23" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D23" t="s" s="2">
+      <c r="C23" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D23" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E23" t="s" s="2">
+      <c r="E23" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F23" t="s" s="2">
+      <c r="F23" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G23" t="s" s="2">
+      <c r="G23" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H23" t="s" s="2">
+      <c r="H23" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -829,28 +841,28 @@
       </c>
     </row>
     <row r="25">
-      <c r="B25" t="s" s="2">
+      <c r="B25" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C25" t="s" s="2">
+      <c r="C25" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D25" t="s" s="2">
+      <c r="D25" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E25" t="s" s="2">
+      <c r="E25" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F25" t="s" s="2">
+      <c r="F25" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G25" t="s" s="2">
+      <c r="G25" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H25" t="s" s="2">
+      <c r="H25" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I25" t="s" s="2">
+      <c r="I25" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -909,10 +921,10 @@
       <c r="I27">
         <f>((C27-C26)^2+(D27- D26)^2)^.5</f>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K27" s="2" t="s">
+      <c r="J27" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K27" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L27" t="n">
@@ -956,28 +968,28 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="s" s="2">
+      <c r="A29" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B29" t="s" s="2">
+      <c r="B29" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C29" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D29" t="s" s="2">
+      <c r="C29" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D29" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E29" t="s" s="2">
+      <c r="E29" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F29" t="s" s="2">
+      <c r="F29" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G29" t="s" s="2">
+      <c r="G29" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H29" t="s" s="2">
+      <c r="H29" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1002,28 +1014,28 @@
       </c>
     </row>
     <row r="31">
-      <c r="B31" t="s" s="2">
+      <c r="B31" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C31" t="s" s="2">
+      <c r="C31" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D31" t="s" s="2">
+      <c r="D31" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E31" t="s" s="2">
+      <c r="E31" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F31" t="s" s="2">
+      <c r="F31" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G31" t="s" s="2">
+      <c r="G31" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H31" t="s" s="2">
+      <c r="H31" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I31" t="s" s="2">
+      <c r="I31" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1082,10 +1094,10 @@
       <c r="I33">
         <f>((C33-C32)^2+(D33- D32)^2)^.5</f>
       </c>
-      <c r="J33" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K33" s="2" t="s">
+      <c r="J33" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K33" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L33" t="n">
@@ -1129,28 +1141,28 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="s" s="2">
+      <c r="A35" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B35" t="s" s="2">
+      <c r="B35" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C35" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D35" t="s" s="2">
+      <c r="C35" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D35" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E35" t="s" s="2">
+      <c r="E35" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F35" t="s" s="2">
+      <c r="F35" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G35" t="s" s="2">
+      <c r="G35" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H35" t="s" s="2">
+      <c r="H35" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1175,28 +1187,28 @@
       </c>
     </row>
     <row r="37">
-      <c r="B37" t="s" s="2">
+      <c r="B37" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C37" t="s" s="2">
+      <c r="C37" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D37" t="s" s="2">
+      <c r="D37" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E37" t="s" s="2">
+      <c r="E37" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F37" t="s" s="2">
+      <c r="F37" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G37" t="s" s="2">
+      <c r="G37" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H37" t="s" s="2">
+      <c r="H37" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I37" t="s" s="2">
+      <c r="I37" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1284,10 +1296,10 @@
       <c r="I40">
         <f>((C40-C39)^2+(D40- D39)^2)^.5</f>
       </c>
-      <c r="J40" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K40" s="2" t="s">
+      <c r="J40" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K40" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L40" t="n">
@@ -1331,28 +1343,28 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="s" s="2">
+      <c r="A42" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B42" t="s" s="2">
+      <c r="B42" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C42" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D42" t="s" s="2">
+      <c r="C42" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D42" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E42" t="s" s="2">
+      <c r="E42" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F42" t="s" s="2">
+      <c r="F42" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G42" t="s" s="2">
+      <c r="G42" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H42" t="s" s="2">
+      <c r="H42" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1377,28 +1389,28 @@
       </c>
     </row>
     <row r="44">
-      <c r="B44" t="s" s="2">
+      <c r="B44" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C44" t="s" s="2">
+      <c r="C44" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D44" t="s" s="2">
+      <c r="D44" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E44" t="s" s="2">
+      <c r="E44" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F44" t="s" s="2">
+      <c r="F44" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G44" t="s" s="2">
+      <c r="G44" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H44" t="s" s="2">
+      <c r="H44" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I44" t="s" s="2">
+      <c r="I44" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1457,10 +1469,10 @@
       <c r="I46">
         <f>((C46-C45)^2+(D46- D45)^2)^.5</f>
       </c>
-      <c r="J46" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K46" s="2" t="s">
+      <c r="J46" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K46" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L46" t="n">
@@ -1504,28 +1516,28 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="s" s="2">
+      <c r="A48" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B48" t="s" s="2">
+      <c r="B48" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C48" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D48" t="s" s="2">
+      <c r="C48" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D48" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E48" t="s" s="2">
+      <c r="E48" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F48" t="s" s="2">
+      <c r="F48" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G48" t="s" s="2">
+      <c r="G48" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H48" t="s" s="2">
+      <c r="H48" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1550,28 +1562,28 @@
       </c>
     </row>
     <row r="50">
-      <c r="B50" t="s" s="2">
+      <c r="B50" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C50" t="s" s="2">
+      <c r="C50" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D50" t="s" s="2">
+      <c r="D50" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E50" t="s" s="2">
+      <c r="E50" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F50" t="s" s="2">
+      <c r="F50" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G50" t="s" s="2">
+      <c r="G50" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H50" t="s" s="2">
+      <c r="H50" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I50" t="s" s="2">
+      <c r="I50" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1630,10 +1642,10 @@
       <c r="I52">
         <f>((C52-C51)^2+(D52- D51)^2)^.5</f>
       </c>
-      <c r="J52" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K52" s="2" t="s">
+      <c r="J52" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K52" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L52" t="n">
@@ -1677,28 +1689,28 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="s" s="2">
+      <c r="A54" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B54" t="s" s="2">
+      <c r="B54" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C54" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D54" t="s" s="2">
+      <c r="C54" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D54" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E54" t="s" s="2">
+      <c r="E54" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F54" t="s" s="2">
+      <c r="F54" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G54" t="s" s="2">
+      <c r="G54" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H54" t="s" s="2">
+      <c r="H54" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1723,28 +1735,28 @@
       </c>
     </row>
     <row r="56">
-      <c r="B56" t="s" s="2">
+      <c r="B56" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C56" t="s" s="2">
+      <c r="C56" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D56" t="s" s="2">
+      <c r="D56" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E56" t="s" s="2">
+      <c r="E56" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F56" t="s" s="2">
+      <c r="F56" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G56" t="s" s="2">
+      <c r="G56" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H56" t="s" s="2">
+      <c r="H56" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -1861,10 +1873,10 @@
       <c r="I60">
         <f>((C60-C59)^2+(D60- D59)^2)^.5</f>
       </c>
-      <c r="J60" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K60" s="2" t="s">
+      <c r="J60" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K60" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L60" t="n">
@@ -1908,28 +1920,28 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="s" s="2">
+      <c r="A62" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B62" t="s" s="2">
+      <c r="B62" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C62" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D62" t="s" s="2">
+      <c r="C62" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D62" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E62" t="s" s="2">
+      <c r="E62" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F62" t="s" s="2">
+      <c r="F62" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G62" t="s" s="2">
+      <c r="G62" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H62" t="s" s="2">
+      <c r="H62" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -1954,28 +1966,28 @@
       </c>
     </row>
     <row r="64">
-      <c r="B64" t="s" s="2">
+      <c r="B64" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C64" t="s" s="2">
+      <c r="C64" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D64" t="s" s="2">
+      <c r="D64" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E64" t="s" s="2">
+      <c r="E64" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F64" t="s" s="2">
+      <c r="F64" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G64" t="s" s="2">
+      <c r="G64" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H64" t="s" s="2">
+      <c r="H64" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I64" t="s" s="2">
+      <c r="I64" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2063,10 +2075,10 @@
       <c r="I67">
         <f>((C67-C66)^2+(D67- D66)^2)^.5</f>
       </c>
-      <c r="J67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K67" s="2" t="s">
+      <c r="J67" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K67" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L67" t="n">
@@ -2110,28 +2122,28 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="s" s="2">
+      <c r="A69" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B69" t="s" s="2">
+      <c r="B69" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C69" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D69" t="s" s="2">
+      <c r="C69" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D69" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E69" t="s" s="2">
+      <c r="E69" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F69" t="s" s="2">
+      <c r="F69" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G69" t="s" s="2">
+      <c r="G69" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H69" t="s" s="2">
+      <c r="H69" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2156,28 +2168,28 @@
       </c>
     </row>
     <row r="71">
-      <c r="B71" t="s" s="2">
+      <c r="B71" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C71" t="s" s="2">
+      <c r="C71" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D71" t="s" s="2">
+      <c r="D71" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E71" t="s" s="2">
+      <c r="E71" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F71" t="s" s="2">
+      <c r="F71" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G71" t="s" s="2">
+      <c r="G71" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H71" t="s" s="2">
+      <c r="H71" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I71" t="s" s="2">
+      <c r="I71" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2439,10 +2451,10 @@
       <c r="I80">
         <f>((C80-C79)^2+(D80- D79)^2)^.5</f>
       </c>
-      <c r="J80" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K80" s="2" t="s">
+      <c r="J80" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K80" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L80" t="n">
@@ -2486,28 +2498,28 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="s" s="2">
+      <c r="A82" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B82" t="s" s="2">
+      <c r="B82" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C82" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D82" t="s" s="2">
+      <c r="C82" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D82" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E82" t="s" s="2">
+      <c r="E82" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F82" t="s" s="2">
+      <c r="F82" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G82" t="s" s="2">
+      <c r="G82" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H82" t="s" s="2">
+      <c r="H82" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2532,28 +2544,28 @@
       </c>
     </row>
     <row r="84">
-      <c r="B84" t="s" s="2">
+      <c r="B84" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C84" t="s" s="2">
+      <c r="C84" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D84" t="s" s="2">
+      <c r="D84" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E84" t="s" s="2">
+      <c r="E84" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F84" t="s" s="2">
+      <c r="F84" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G84" t="s" s="2">
+      <c r="G84" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H84" t="s" s="2">
+      <c r="H84" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I84" t="s" s="2">
+      <c r="I84" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -2815,10 +2827,10 @@
       <c r="I93">
         <f>((C93-C92)^2+(D93- D92)^2)^.5</f>
       </c>
-      <c r="J93" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K93" s="2" t="s">
+      <c r="J93" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K93" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L93" t="n">
@@ -2862,28 +2874,28 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="s" s="2">
+      <c r="A95" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B95" t="s" s="2">
+      <c r="B95" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C95" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D95" t="s" s="2">
+      <c r="C95" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D95" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E95" t="s" s="2">
+      <c r="E95" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F95" t="s" s="2">
+      <c r="F95" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G95" t="s" s="2">
+      <c r="G95" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H95" t="s" s="2">
+      <c r="H95" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -2908,28 +2920,28 @@
       </c>
     </row>
     <row r="97">
-      <c r="B97" t="s" s="2">
+      <c r="B97" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C97" t="s" s="2">
+      <c r="C97" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D97" t="s" s="2">
+      <c r="D97" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E97" t="s" s="2">
+      <c r="E97" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F97" t="s" s="2">
+      <c r="F97" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G97" t="s" s="2">
+      <c r="G97" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H97" t="s" s="2">
+      <c r="H97" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I97" t="s" s="2">
+      <c r="I97" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3017,10 +3029,10 @@
       <c r="I100">
         <f>((C100-C99)^2+(D100- D99)^2)^.5</f>
       </c>
-      <c r="J100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K100" s="2" t="s">
+      <c r="J100" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K100" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L100" t="n">
@@ -3064,28 +3076,28 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="s" s="2">
+      <c r="A102" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B102" t="s" s="2">
+      <c r="B102" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C102" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D102" t="s" s="2">
+      <c r="C102" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D102" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E102" t="s" s="2">
+      <c r="E102" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F102" t="s" s="2">
+      <c r="F102" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G102" t="s" s="2">
+      <c r="G102" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H102" t="s" s="2">
+      <c r="H102" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3110,28 +3122,28 @@
       </c>
     </row>
     <row r="104">
-      <c r="B104" t="s" s="2">
+      <c r="B104" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C104" t="s" s="2">
+      <c r="C104" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D104" t="s" s="2">
+      <c r="D104" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E104" t="s" s="2">
+      <c r="E104" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F104" t="s" s="2">
+      <c r="F104" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G104" t="s" s="2">
+      <c r="G104" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H104" t="s" s="2">
+      <c r="H104" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I104" t="s" s="2">
+      <c r="I104" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3190,10 +3202,10 @@
       <c r="I106">
         <f>((C106-C105)^2+(D106- D105)^2)^.5</f>
       </c>
-      <c r="J106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K106" s="2" t="s">
+      <c r="J106" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K106" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L106" t="n">
@@ -3237,28 +3249,28 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="s" s="2">
+      <c r="A108" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B108" t="s" s="2">
+      <c r="B108" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C108" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D108" t="s" s="2">
+      <c r="C108" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D108" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E108" t="s" s="2">
+      <c r="E108" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F108" t="s" s="2">
+      <c r="F108" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G108" t="s" s="2">
+      <c r="G108" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H108" t="s" s="2">
+      <c r="H108" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3283,28 +3295,28 @@
       </c>
     </row>
     <row r="110">
-      <c r="B110" t="s" s="2">
+      <c r="B110" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C110" t="s" s="2">
+      <c r="C110" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D110" t="s" s="2">
+      <c r="D110" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E110" t="s" s="2">
+      <c r="E110" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F110" t="s" s="2">
+      <c r="F110" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G110" t="s" s="2">
+      <c r="G110" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H110" t="s" s="2">
+      <c r="H110" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I110" t="s" s="2">
+      <c r="I110" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3363,10 +3375,10 @@
       <c r="I112">
         <f>((C112-C111)^2+(D112- D111)^2)^.5</f>
       </c>
-      <c r="J112" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K112" s="2" t="s">
+      <c r="J112" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K112" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L112" t="n">
@@ -3410,28 +3422,28 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="s" s="2">
+      <c r="A114" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B114" t="s" s="2">
+      <c r="B114" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C114" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D114" t="s" s="2">
+      <c r="C114" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D114" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E114" t="s" s="2">
+      <c r="E114" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F114" t="s" s="2">
+      <c r="F114" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G114" t="s" s="2">
+      <c r="G114" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H114" t="s" s="2">
+      <c r="H114" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3456,28 +3468,28 @@
       </c>
     </row>
     <row r="116">
-      <c r="B116" t="s" s="2">
+      <c r="B116" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C116" t="s" s="2">
+      <c r="C116" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D116" t="s" s="2">
+      <c r="D116" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E116" t="s" s="2">
+      <c r="E116" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F116" t="s" s="2">
+      <c r="F116" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G116" t="s" s="2">
+      <c r="G116" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H116" t="s" s="2">
+      <c r="H116" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I116" t="s" s="2">
+      <c r="I116" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3536,10 +3548,10 @@
       <c r="I118">
         <f>((C118-C117)^2+(D118- D117)^2)^.5</f>
       </c>
-      <c r="J118" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K118" s="2" t="s">
+      <c r="J118" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K118" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L118" t="n">
@@ -3583,28 +3595,28 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="s" s="2">
+      <c r="A120" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B120" t="s" s="2">
+      <c r="B120" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C120" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D120" t="s" s="2">
+      <c r="C120" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D120" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E120" t="s" s="2">
+      <c r="E120" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F120" t="s" s="2">
+      <c r="F120" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G120" t="s" s="2">
+      <c r="G120" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H120" t="s" s="2">
+      <c r="H120" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3629,28 +3641,28 @@
       </c>
     </row>
     <row r="122">
-      <c r="B122" t="s" s="2">
+      <c r="B122" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C122" t="s" s="2">
+      <c r="C122" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D122" t="s" s="2">
+      <c r="D122" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E122" t="s" s="2">
+      <c r="E122" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F122" t="s" s="2">
+      <c r="F122" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G122" t="s" s="2">
+      <c r="G122" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H122" t="s" s="2">
+      <c r="H122" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I122" t="s" s="2">
+      <c r="I122" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3709,10 +3721,10 @@
       <c r="I124">
         <f>((C124-C123)^2+(D124- D123)^2)^.5</f>
       </c>
-      <c r="J124" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K124" s="2" t="s">
+      <c r="J124" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K124" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L124" t="n">
@@ -3756,28 +3768,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="s" s="2">
+      <c r="A126" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B126" t="s" s="2">
+      <c r="B126" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C126" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D126" t="s" s="2">
+      <c r="C126" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D126" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E126" t="s" s="2">
+      <c r="E126" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F126" t="s" s="2">
+      <c r="F126" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G126" t="s" s="2">
+      <c r="G126" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H126" t="s" s="2">
+      <c r="H126" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3802,28 +3814,28 @@
       </c>
     </row>
     <row r="128">
-      <c r="B128" t="s" s="2">
+      <c r="B128" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C128" t="s" s="2">
+      <c r="C128" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D128" t="s" s="2">
+      <c r="D128" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E128" t="s" s="2">
+      <c r="E128" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F128" t="s" s="2">
+      <c r="F128" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G128" t="s" s="2">
+      <c r="G128" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H128" t="s" s="2">
+      <c r="H128" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I128" t="s" s="2">
+      <c r="I128" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -3882,10 +3894,10 @@
       <c r="I130">
         <f>((C130-C129)^2+(D130- D129)^2)^.5</f>
       </c>
-      <c r="J130" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K130" s="2" t="s">
+      <c r="J130" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K130" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L130" t="n">
@@ -3929,28 +3941,28 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="s" s="2">
+      <c r="A132" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B132" t="s" s="2">
+      <c r="B132" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C132" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D132" t="s" s="2">
+      <c r="C132" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D132" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E132" t="s" s="2">
+      <c r="E132" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F132" t="s" s="2">
+      <c r="F132" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G132" t="s" s="2">
+      <c r="G132" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H132" t="s" s="2">
+      <c r="H132" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -3975,28 +3987,28 @@
       </c>
     </row>
     <row r="134">
-      <c r="B134" t="s" s="2">
+      <c r="B134" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C134" t="s" s="2">
+      <c r="C134" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D134" t="s" s="2">
+      <c r="D134" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E134" t="s" s="2">
+      <c r="E134" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F134" t="s" s="2">
+      <c r="F134" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G134" t="s" s="2">
+      <c r="G134" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H134" t="s" s="2">
+      <c r="H134" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I134" t="s" s="2">
+      <c r="I134" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4258,10 +4270,10 @@
       <c r="I143">
         <f>((C143-C142)^2+(D143- D142)^2)^.5</f>
       </c>
-      <c r="J143" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K143" s="2" t="s">
+      <c r="J143" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K143" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L143" t="n">
@@ -4305,28 +4317,28 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="s" s="2">
+      <c r="A145" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B145" t="s" s="2">
+      <c r="B145" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C145" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D145" t="s" s="2">
+      <c r="C145" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D145" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E145" t="s" s="2">
+      <c r="E145" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F145" t="s" s="2">
+      <c r="F145" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G145" t="s" s="2">
+      <c r="G145" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H145" t="s" s="2">
+      <c r="H145" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4351,28 +4363,28 @@
       </c>
     </row>
     <row r="147">
-      <c r="B147" t="s" s="2">
+      <c r="B147" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C147" t="s" s="2">
+      <c r="C147" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D147" t="s" s="2">
+      <c r="D147" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E147" t="s" s="2">
+      <c r="E147" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F147" t="s" s="2">
+      <c r="F147" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G147" t="s" s="2">
+      <c r="G147" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H147" t="s" s="2">
+      <c r="H147" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I147" t="s" s="2">
+      <c r="I147" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4431,10 +4443,10 @@
       <c r="I149">
         <f>((C149-C148)^2+(D149- D148)^2)^.5</f>
       </c>
-      <c r="J149" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K149" s="2" t="s">
+      <c r="J149" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K149" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L149" t="n">
@@ -4478,28 +4490,28 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="s" s="2">
+      <c r="A151" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B151" t="s" s="2">
+      <c r="B151" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C151" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D151" t="s" s="2">
+      <c r="C151" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D151" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E151" t="s" s="2">
+      <c r="E151" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F151" t="s" s="2">
+      <c r="F151" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G151" t="s" s="2">
+      <c r="G151" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H151" t="s" s="2">
+      <c r="H151" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4524,28 +4536,28 @@
       </c>
     </row>
     <row r="153">
-      <c r="B153" t="s" s="2">
+      <c r="B153" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C153" t="s" s="2">
+      <c r="C153" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D153" t="s" s="2">
+      <c r="D153" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E153" t="s" s="2">
+      <c r="E153" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F153" t="s" s="2">
+      <c r="F153" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G153" t="s" s="2">
+      <c r="G153" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H153" t="s" s="2">
+      <c r="H153" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I153" t="s" s="2">
+      <c r="I153" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4604,10 +4616,10 @@
       <c r="I155">
         <f>((C155-C154)^2+(D155- D154)^2)^.5</f>
       </c>
-      <c r="J155" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K155" s="2" t="s">
+      <c r="J155" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K155" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L155" t="n">
@@ -4651,28 +4663,28 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="s" s="2">
+      <c r="A157" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B157" t="s" s="2">
+      <c r="B157" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C157" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D157" t="s" s="2">
+      <c r="C157" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D157" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E157" t="s" s="2">
+      <c r="E157" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F157" t="s" s="2">
+      <c r="F157" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G157" t="s" s="2">
+      <c r="G157" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H157" t="s" s="2">
+      <c r="H157" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4697,28 +4709,28 @@
       </c>
     </row>
     <row r="159">
-      <c r="B159" t="s" s="2">
+      <c r="B159" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C159" t="s" s="2">
+      <c r="C159" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D159" t="s" s="2">
+      <c r="D159" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E159" t="s" s="2">
+      <c r="E159" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F159" t="s" s="2">
+      <c r="F159" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G159" t="s" s="2">
+      <c r="G159" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H159" t="s" s="2">
+      <c r="H159" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I159" t="s" s="2">
+      <c r="I159" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -4806,10 +4818,10 @@
       <c r="I162">
         <f>((C162-C161)^2+(D162- D161)^2)^.5</f>
       </c>
-      <c r="J162" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K162" s="2" t="s">
+      <c r="J162" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K162" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L162" t="n">
@@ -4853,28 +4865,28 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="s" s="2">
+      <c r="A164" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B164" t="s" s="2">
+      <c r="B164" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C164" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D164" t="s" s="2">
+      <c r="C164" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D164" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E164" t="s" s="2">
+      <c r="E164" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F164" t="s" s="2">
+      <c r="F164" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G164" t="s" s="2">
+      <c r="G164" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H164" t="s" s="2">
+      <c r="H164" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -4899,28 +4911,28 @@
       </c>
     </row>
     <row r="166">
-      <c r="B166" t="s" s="2">
+      <c r="B166" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C166" t="s" s="2">
+      <c r="C166" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D166" t="s" s="2">
+      <c r="D166" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E166" t="s" s="2">
+      <c r="E166" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F166" t="s" s="2">
+      <c r="F166" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G166" t="s" s="2">
+      <c r="G166" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H166" t="s" s="2">
+      <c r="H166" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I166" t="s" s="2">
+      <c r="I166" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5211,10 +5223,10 @@
       <c r="I176">
         <f>((C176-C175)^2+(D176- D175)^2)^.5</f>
       </c>
-      <c r="J176" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K176" s="2" t="s">
+      <c r="J176" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K176" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L176" t="n">
@@ -5258,28 +5270,28 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="s" s="2">
+      <c r="A178" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B178" t="s" s="2">
+      <c r="B178" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C178" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D178" t="s" s="2">
+      <c r="C178" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D178" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E178" t="s" s="2">
+      <c r="E178" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F178" t="s" s="2">
+      <c r="F178" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G178" t="s" s="2">
+      <c r="G178" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H178" t="s" s="2">
+      <c r="H178" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5304,28 +5316,28 @@
       </c>
     </row>
     <row r="180">
-      <c r="B180" t="s" s="2">
+      <c r="B180" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C180" t="s" s="2">
+      <c r="C180" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D180" t="s" s="2">
+      <c r="D180" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E180" t="s" s="2">
+      <c r="E180" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F180" t="s" s="2">
+      <c r="F180" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G180" t="s" s="2">
+      <c r="G180" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H180" t="s" s="2">
+      <c r="H180" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I180" t="s" s="2">
+      <c r="I180" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5529,10 +5541,10 @@
       <c r="I187">
         <f>((C187-C186)^2+(D187- D186)^2)^.5</f>
       </c>
-      <c r="J187" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K187" s="2" t="s">
+      <c r="J187" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K187" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L187" t="n">
@@ -5576,28 +5588,28 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="s" s="2">
+      <c r="A189" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B189" t="s" s="2">
+      <c r="B189" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C189" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D189" t="s" s="2">
+      <c r="C189" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D189" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E189" t="s" s="2">
+      <c r="E189" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F189" t="s" s="2">
+      <c r="F189" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G189" t="s" s="2">
+      <c r="G189" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H189" t="s" s="2">
+      <c r="H189" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5622,28 +5634,28 @@
       </c>
     </row>
     <row r="191">
-      <c r="B191" t="s" s="2">
+      <c r="B191" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C191" t="s" s="2">
+      <c r="C191" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D191" t="s" s="2">
+      <c r="D191" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E191" t="s" s="2">
+      <c r="E191" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F191" t="s" s="2">
+      <c r="F191" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G191" t="s" s="2">
+      <c r="G191" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H191" t="s" s="2">
+      <c r="H191" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I191" t="s" s="2">
+      <c r="I191" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5702,10 +5714,10 @@
       <c r="I193">
         <f>((C193-C192)^2+(D193- D192)^2)^.5</f>
       </c>
-      <c r="J193" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K193" s="2" t="s">
+      <c r="J193" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K193" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L193" t="n">
@@ -5749,28 +5761,28 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="s" s="2">
+      <c r="A195" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B195" t="s" s="2">
+      <c r="B195" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C195" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D195" t="s" s="2">
+      <c r="C195" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D195" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E195" t="s" s="2">
+      <c r="E195" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F195" t="s" s="2">
+      <c r="F195" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G195" t="s" s="2">
+      <c r="G195" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H195" t="s" s="2">
+      <c r="H195" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5795,28 +5807,28 @@
       </c>
     </row>
     <row r="197">
-      <c r="B197" t="s" s="2">
+      <c r="B197" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C197" t="s" s="2">
+      <c r="C197" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D197" t="s" s="2">
+      <c r="D197" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E197" t="s" s="2">
+      <c r="E197" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F197" t="s" s="2">
+      <c r="F197" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G197" t="s" s="2">
+      <c r="G197" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H197" t="s" s="2">
+      <c r="H197" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I197" t="s" s="2">
+      <c r="I197" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -5904,10 +5916,10 @@
       <c r="I200">
         <f>((C200-C199)^2+(D200- D199)^2)^.5</f>
       </c>
-      <c r="J200" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K200" s="2" t="s">
+      <c r="J200" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K200" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L200" t="n">
@@ -5951,28 +5963,28 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="s" s="2">
+      <c r="A202" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B202" t="s" s="2">
+      <c r="B202" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C202" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D202" t="s" s="2">
+      <c r="C202" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D202" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E202" t="s" s="2">
+      <c r="E202" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F202" t="s" s="2">
+      <c r="F202" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G202" t="s" s="2">
+      <c r="G202" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H202" t="s" s="2">
+      <c r="H202" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -5997,28 +6009,28 @@
       </c>
     </row>
     <row r="204">
-      <c r="B204" t="s" s="2">
+      <c r="B204" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C204" t="s" s="2">
+      <c r="C204" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D204" t="s" s="2">
+      <c r="D204" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E204" t="s" s="2">
+      <c r="E204" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F204" t="s" s="2">
+      <c r="F204" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G204" t="s" s="2">
+      <c r="G204" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H204" t="s" s="2">
+      <c r="H204" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I204" t="s" s="2">
+      <c r="I204" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6106,10 +6118,10 @@
       <c r="I207">
         <f>((C207-C206)^2+(D207- D206)^2)^.5</f>
       </c>
-      <c r="J207" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K207" s="2" t="s">
+      <c r="J207" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K207" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L207" t="n">
@@ -6153,28 +6165,28 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="s" s="2">
+      <c r="A209" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B209" t="s" s="2">
+      <c r="B209" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C209" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D209" t="s" s="2">
+      <c r="C209" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D209" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E209" t="s" s="2">
+      <c r="E209" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F209" t="s" s="2">
+      <c r="F209" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G209" t="s" s="2">
+      <c r="G209" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H209" t="s" s="2">
+      <c r="H209" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6199,28 +6211,28 @@
       </c>
     </row>
     <row r="211">
-      <c r="B211" t="s" s="2">
+      <c r="B211" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C211" t="s" s="2">
+      <c r="C211" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D211" t="s" s="2">
+      <c r="D211" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E211" t="s" s="2">
+      <c r="E211" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F211" t="s" s="2">
+      <c r="F211" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G211" t="s" s="2">
+      <c r="G211" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H211" t="s" s="2">
+      <c r="H211" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I211" t="s" s="2">
+      <c r="I211" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6308,10 +6320,10 @@
       <c r="I214">
         <f>((C214-C213)^2+(D214- D213)^2)^.5</f>
       </c>
-      <c r="J214" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K214" s="2" t="s">
+      <c r="J214" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K214" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L214" t="n">
@@ -6355,28 +6367,28 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="s" s="2">
+      <c r="A216" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B216" t="s" s="2">
+      <c r="B216" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C216" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D216" t="s" s="2">
+      <c r="C216" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D216" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E216" t="s" s="2">
+      <c r="E216" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F216" t="s" s="2">
+      <c r="F216" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G216" t="s" s="2">
+      <c r="G216" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H216" t="s" s="2">
+      <c r="H216" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6401,28 +6413,28 @@
       </c>
     </row>
     <row r="218">
-      <c r="B218" t="s" s="2">
+      <c r="B218" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C218" t="s" s="2">
+      <c r="C218" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D218" t="s" s="2">
+      <c r="D218" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E218" t="s" s="2">
+      <c r="E218" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F218" t="s" s="2">
+      <c r="F218" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G218" t="s" s="2">
+      <c r="G218" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H218" t="s" s="2">
+      <c r="H218" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I218" t="s" s="2">
+      <c r="I218" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6481,10 +6493,10 @@
       <c r="I220">
         <f>((C220-C219)^2+(D220- D219)^2)^.5</f>
       </c>
-      <c r="J220" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K220" s="2" t="s">
+      <c r="J220" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K220" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L220" t="n">
@@ -6528,28 +6540,28 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="s" s="2">
+      <c r="A222" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B222" t="s" s="2">
+      <c r="B222" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C222" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D222" t="s" s="2">
+      <c r="C222" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D222" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E222" t="s" s="2">
+      <c r="E222" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F222" t="s" s="2">
+      <c r="F222" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G222" t="s" s="2">
+      <c r="G222" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H222" t="s" s="2">
+      <c r="H222" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6574,28 +6586,28 @@
       </c>
     </row>
     <row r="224">
-      <c r="B224" t="s" s="2">
+      <c r="B224" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C224" t="s" s="2">
+      <c r="C224" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D224" t="s" s="2">
+      <c r="D224" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E224" t="s" s="2">
+      <c r="E224" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F224" t="s" s="2">
+      <c r="F224" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G224" t="s" s="2">
+      <c r="G224" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H224" t="s" s="2">
+      <c r="H224" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I224" t="s" s="2">
+      <c r="I224" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6654,10 +6666,10 @@
       <c r="I226">
         <f>((C226-C225)^2+(D226- D225)^2)^.5</f>
       </c>
-      <c r="J226" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K226" s="2" t="s">
+      <c r="J226" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K226" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L226" t="n">
@@ -6701,28 +6713,28 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="s" s="2">
+      <c r="A228" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B228" t="s" s="2">
+      <c r="B228" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C228" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D228" t="s" s="2">
+      <c r="C228" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D228" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E228" t="s" s="2">
+      <c r="E228" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F228" t="s" s="2">
+      <c r="F228" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G228" t="s" s="2">
+      <c r="G228" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H228" t="s" s="2">
+      <c r="H228" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6747,28 +6759,28 @@
       </c>
     </row>
     <row r="230">
-      <c r="B230" t="s" s="2">
+      <c r="B230" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C230" t="s" s="2">
+      <c r="C230" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D230" t="s" s="2">
+      <c r="D230" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E230" t="s" s="2">
+      <c r="E230" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F230" t="s" s="2">
+      <c r="F230" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G230" t="s" s="2">
+      <c r="G230" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H230" t="s" s="2">
+      <c r="H230" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I230" t="s" s="2">
+      <c r="I230" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -6856,10 +6868,10 @@
       <c r="I233">
         <f>((C233-C232)^2+(D233- D232)^2)^.5</f>
       </c>
-      <c r="J233" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K233" s="2" t="s">
+      <c r="J233" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K233" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L233" t="n">
@@ -6903,28 +6915,28 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="s" s="2">
+      <c r="A235" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B235" t="s" s="2">
+      <c r="B235" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C235" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D235" t="s" s="2">
+      <c r="C235" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D235" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E235" t="s" s="2">
+      <c r="E235" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F235" t="s" s="2">
+      <c r="F235" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G235" t="s" s="2">
+      <c r="G235" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H235" t="s" s="2">
+      <c r="H235" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -6949,28 +6961,28 @@
       </c>
     </row>
     <row r="237">
-      <c r="B237" t="s" s="2">
+      <c r="B237" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C237" t="s" s="2">
+      <c r="C237" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D237" t="s" s="2">
+      <c r="D237" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E237" t="s" s="2">
+      <c r="E237" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F237" t="s" s="2">
+      <c r="F237" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G237" t="s" s="2">
+      <c r="G237" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H237" t="s" s="2">
+      <c r="H237" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I237" t="s" s="2">
+      <c r="I237" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7116,10 +7128,10 @@
       <c r="I242">
         <f>((C242-C241)^2+(D242- D241)^2)^.5</f>
       </c>
-      <c r="J242" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K242" s="2" t="s">
+      <c r="J242" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K242" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L242" t="n">
@@ -7163,28 +7175,28 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="s" s="2">
+      <c r="A244" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B244" t="s" s="2">
+      <c r="B244" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C244" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D244" t="s" s="2">
+      <c r="C244" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D244" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E244" t="s" s="2">
+      <c r="E244" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F244" t="s" s="2">
+      <c r="F244" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G244" t="s" s="2">
+      <c r="G244" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H244" t="s" s="2">
+      <c r="H244" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7209,28 +7221,28 @@
       </c>
     </row>
     <row r="246">
-      <c r="B246" t="s" s="2">
+      <c r="B246" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C246" t="s" s="2">
+      <c r="C246" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D246" t="s" s="2">
+      <c r="D246" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E246" t="s" s="2">
+      <c r="E246" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F246" t="s" s="2">
+      <c r="F246" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G246" t="s" s="2">
+      <c r="G246" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H246" t="s" s="2">
+      <c r="H246" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I246" t="s" s="2">
+      <c r="I246" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7347,10 +7359,10 @@
       <c r="I250">
         <f>((C250-C249)^2+(D250- D249)^2)^.5</f>
       </c>
-      <c r="J250" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K250" s="2" t="s">
+      <c r="J250" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K250" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L250" t="n">
@@ -7394,28 +7406,28 @@
       </c>
     </row>
     <row r="252">
-      <c r="A252" t="s" s="2">
+      <c r="A252" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B252" t="s" s="2">
+      <c r="B252" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C252" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D252" t="s" s="2">
+      <c r="C252" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D252" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E252" t="s" s="2">
+      <c r="E252" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F252" t="s" s="2">
+      <c r="F252" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G252" t="s" s="2">
+      <c r="G252" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H252" t="s" s="2">
+      <c r="H252" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7440,28 +7452,28 @@
       </c>
     </row>
     <row r="254">
-      <c r="B254" t="s" s="2">
+      <c r="B254" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C254" t="s" s="2">
+      <c r="C254" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D254" t="s" s="2">
+      <c r="D254" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E254" t="s" s="2">
+      <c r="E254" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F254" t="s" s="2">
+      <c r="F254" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G254" t="s" s="2">
+      <c r="G254" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H254" t="s" s="2">
+      <c r="H254" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I254" t="s" s="2">
+      <c r="I254" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7549,10 +7561,10 @@
       <c r="I257">
         <f>((C257-C256)^2+(D257- D256)^2)^.5</f>
       </c>
-      <c r="J257" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K257" s="2" t="s">
+      <c r="J257" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K257" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L257" t="n">
@@ -7596,28 +7608,28 @@
       </c>
     </row>
     <row r="259">
-      <c r="A259" t="s" s="2">
+      <c r="A259" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B259" t="s" s="2">
+      <c r="B259" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C259" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D259" t="s" s="2">
+      <c r="C259" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D259" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E259" t="s" s="2">
+      <c r="E259" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F259" t="s" s="2">
+      <c r="F259" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G259" t="s" s="2">
+      <c r="G259" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H259" t="s" s="2">
+      <c r="H259" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7642,28 +7654,28 @@
       </c>
     </row>
     <row r="261">
-      <c r="B261" t="s" s="2">
+      <c r="B261" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C261" t="s" s="2">
+      <c r="C261" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D261" t="s" s="2">
+      <c r="D261" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E261" t="s" s="2">
+      <c r="E261" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F261" t="s" s="2">
+      <c r="F261" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G261" t="s" s="2">
+      <c r="G261" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H261" t="s" s="2">
+      <c r="H261" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I261" t="s" s="2">
+      <c r="I261" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -7838,10 +7850,10 @@
       <c r="I267">
         <f>((C267-C266)^2+(D267- D266)^2)^.5</f>
       </c>
-      <c r="J267" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K267" s="2" t="s">
+      <c r="J267" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K267" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L267" t="n">
@@ -7885,28 +7897,28 @@
       </c>
     </row>
     <row r="269">
-      <c r="A269" t="s" s="2">
+      <c r="A269" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B269" t="s" s="2">
+      <c r="B269" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C269" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D269" t="s" s="2">
+      <c r="C269" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D269" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E269" t="s" s="2">
+      <c r="E269" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F269" t="s" s="2">
+      <c r="F269" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G269" t="s" s="2">
+      <c r="G269" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H269" t="s" s="2">
+      <c r="H269" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -7931,28 +7943,28 @@
       </c>
     </row>
     <row r="271">
-      <c r="B271" t="s" s="2">
+      <c r="B271" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C271" t="s" s="2">
+      <c r="C271" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D271" t="s" s="2">
+      <c r="D271" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E271" t="s" s="2">
+      <c r="E271" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F271" t="s" s="2">
+      <c r="F271" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G271" t="s" s="2">
+      <c r="G271" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H271" t="s" s="2">
+      <c r="H271" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I271" t="s" s="2">
+      <c r="I271" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8011,10 +8023,10 @@
       <c r="I273">
         <f>((C273-C272)^2+(D273- D272)^2)^.5</f>
       </c>
-      <c r="J273" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K273" s="2" t="s">
+      <c r="J273" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K273" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L273" t="n">
@@ -8058,28 +8070,28 @@
       </c>
     </row>
     <row r="275">
-      <c r="A275" t="s" s="2">
+      <c r="A275" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B275" t="s" s="2">
+      <c r="B275" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C275" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D275" t="s" s="2">
+      <c r="C275" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D275" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E275" t="s" s="2">
+      <c r="E275" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F275" t="s" s="2">
+      <c r="F275" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G275" t="s" s="2">
+      <c r="G275" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H275" t="s" s="2">
+      <c r="H275" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8104,28 +8116,28 @@
       </c>
     </row>
     <row r="277">
-      <c r="B277" t="s" s="2">
+      <c r="B277" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C277" t="s" s="2">
+      <c r="C277" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D277" t="s" s="2">
+      <c r="D277" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E277" t="s" s="2">
+      <c r="E277" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F277" t="s" s="2">
+      <c r="F277" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G277" t="s" s="2">
+      <c r="G277" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H277" t="s" s="2">
+      <c r="H277" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I277" t="s" s="2">
+      <c r="I277" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8271,10 +8283,10 @@
       <c r="I282">
         <f>((C282-C281)^2+(D282- D281)^2)^.5</f>
       </c>
-      <c r="J282" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K282" s="2" t="s">
+      <c r="J282" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K282" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L282" t="n">
@@ -8318,28 +8330,28 @@
       </c>
     </row>
     <row r="284">
-      <c r="A284" t="s" s="2">
+      <c r="A284" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B284" t="s" s="2">
+      <c r="B284" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C284" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D284" t="s" s="2">
+      <c r="C284" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D284" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E284" t="s" s="2">
+      <c r="E284" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F284" t="s" s="2">
+      <c r="F284" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G284" t="s" s="2">
+      <c r="G284" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H284" t="s" s="2">
+      <c r="H284" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8364,28 +8376,28 @@
       </c>
     </row>
     <row r="286">
-      <c r="B286" t="s" s="2">
+      <c r="B286" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C286" t="s" s="2">
+      <c r="C286" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D286" t="s" s="2">
+      <c r="D286" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E286" t="s" s="2">
+      <c r="E286" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F286" t="s" s="2">
+      <c r="F286" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G286" t="s" s="2">
+      <c r="G286" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H286" t="s" s="2">
+      <c r="H286" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I286" t="s" s="2">
+      <c r="I286" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8473,10 +8485,10 @@
       <c r="I289">
         <f>((C289-C288)^2+(D289- D288)^2)^.5</f>
       </c>
-      <c r="J289" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K289" s="2" t="s">
+      <c r="J289" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K289" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L289" t="n">
@@ -8520,28 +8532,28 @@
       </c>
     </row>
     <row r="291">
-      <c r="A291" t="s" s="2">
+      <c r="A291" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B291" t="s" s="2">
+      <c r="B291" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C291" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D291" t="s" s="2">
+      <c r="C291" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D291" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E291" t="s" s="2">
+      <c r="E291" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F291" t="s" s="2">
+      <c r="F291" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G291" t="s" s="2">
+      <c r="G291" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H291" t="s" s="2">
+      <c r="H291" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8566,28 +8578,28 @@
       </c>
     </row>
     <row r="293">
-      <c r="B293" t="s" s="2">
+      <c r="B293" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C293" t="s" s="2">
+      <c r="C293" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D293" t="s" s="2">
+      <c r="D293" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E293" t="s" s="2">
+      <c r="E293" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F293" t="s" s="2">
+      <c r="F293" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G293" t="s" s="2">
+      <c r="G293" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H293" t="s" s="2">
+      <c r="H293" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I293" t="s" s="2">
+      <c r="I293" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8646,10 +8658,10 @@
       <c r="I295">
         <f>((C295-C294)^2+(D295- D294)^2)^.5</f>
       </c>
-      <c r="J295" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K295" s="2" t="s">
+      <c r="J295" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K295" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L295" t="n">
@@ -8693,28 +8705,28 @@
       </c>
     </row>
     <row r="297">
-      <c r="A297" t="s" s="2">
+      <c r="A297" t="s" s="4">
         <v>9</v>
       </c>
-      <c r="B297" t="s" s="2">
+      <c r="B297" t="s" s="4">
         <v>10</v>
       </c>
-      <c r="C297" t="s" s="2">
-        <v>11</v>
-      </c>
-      <c r="D297" t="s" s="2">
+      <c r="C297" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="D297" t="s" s="4">
         <v>12</v>
       </c>
-      <c r="E297" t="s" s="2">
+      <c r="E297" t="s" s="4">
         <v>13</v>
       </c>
-      <c r="F297" t="s" s="2">
+      <c r="F297" t="s" s="4">
         <v>14</v>
       </c>
-      <c r="G297" t="s" s="2">
+      <c r="G297" t="s" s="4">
         <v>15</v>
       </c>
-      <c r="H297" t="s" s="2">
+      <c r="H297" t="s" s="4">
         <v>16</v>
       </c>
     </row>
@@ -8739,28 +8751,28 @@
       </c>
     </row>
     <row r="299">
-      <c r="B299" t="s" s="2">
+      <c r="B299" t="s" s="4">
         <v>17</v>
       </c>
-      <c r="C299" t="s" s="2">
+      <c r="C299" t="s" s="4">
         <v>18</v>
       </c>
-      <c r="D299" t="s" s="2">
+      <c r="D299" t="s" s="4">
         <v>19</v>
       </c>
-      <c r="E299" t="s" s="2">
+      <c r="E299" t="s" s="4">
         <v>20</v>
       </c>
-      <c r="F299" t="s" s="2">
+      <c r="F299" t="s" s="4">
         <v>21</v>
       </c>
-      <c r="G299" t="s" s="2">
+      <c r="G299" t="s" s="4">
         <v>22</v>
       </c>
-      <c r="H299" t="s" s="2">
+      <c r="H299" t="s" s="4">
         <v>23</v>
       </c>
-      <c r="I299" t="s" s="2">
+      <c r="I299" t="s" s="4">
         <v>11</v>
       </c>
     </row>
@@ -8819,10 +8831,10 @@
       <c r="I301">
         <f>((C301-C300)^2+(D301- D300)^2)^.5</f>
       </c>
-      <c r="J301" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="K301" s="2" t="s">
+      <c r="J301" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="K301" s="4" t="s">
         <v>24</v>
       </c>
       <c r="L301" t="n">
